--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -485,6 +485,27 @@
   </si>
   <si>
     <t>TC-SIGNIN-010</t>
+  </si>
+  <si>
+    <t>Verify password case sensitivity</t>
+  </si>
+  <si>
+    <t>Test signing in with passwords that differ in case</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Enter Email Address into email address field.
+3.Enter Password  that has different letter cases.
+4.Click on 'sign in' button</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "yadvirkaur@mailinator.com",
+        "Password": "YaDvIr@001"
+    }</t>
+  </si>
+  <si>
+    <t>Sign-in should fail if the password is case-sensitive.</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,6 +1179,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,7 +1798,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1803,7 +1827,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1832,7 +1856,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1861,7 +1885,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1887,7 +1911,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1913,7 +1937,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1939,7 +1963,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1954,8 +1978,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2025,7 +2049,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2054,7 +2078,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2083,7 +2107,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2112,7 +2136,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2138,7 +2162,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2167,7 +2191,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2196,7 +2220,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2222,7 +2246,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2252,9 +2276,27 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" ht="16.2" spans="1:1">
+    <row r="11" ht="97.2" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>115</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -292,7 +292,7 @@
 </t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>Passed</t>
   </si>
   <si>
     <t>TC-SIGNIN-002</t>
@@ -322,7 +322,7 @@
     <t>User is not signed in and error message is shown as expected.</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>Failed</t>
   </si>
   <si>
     <t>TC-SIGNIN-003</t>
@@ -518,7 +518,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +547,12 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <charset val="134"/>
@@ -1022,133 +1028,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,16 +1186,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1978,8 +1984,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2049,7 +2055,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2078,7 +2084,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2107,8 +2113,8 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>74</v>
+      <c r="I4" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="113.4" spans="1:9">
@@ -2136,8 +2142,8 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>74</v>
+      <c r="I5" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="97.2" spans="1:9">
@@ -2162,8 +2168,8 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>74</v>
+      <c r="I6" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="194.4" spans="1:9">
@@ -2191,8 +2197,8 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>74</v>
+      <c r="I7" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="129.6" spans="1:9">
@@ -2220,8 +2226,8 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>74</v>
+      <c r="I8" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="178.2" spans="1:9">
@@ -2246,11 +2252,11 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>74</v>
+      <c r="I9" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="10" ht="113.4" spans="1:8">
+    <row r="10" ht="113.4" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -2275,15 +2281,18 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="I10" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="11" ht="97.2" spans="1:7">
+    <row r="11" ht="97.2" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2295,8 +2304,14 @@
       <c r="F11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -506,6 +506,27 @@
   </si>
   <si>
     <t>Sign-in should fail if the password is case-sensitive.</t>
+  </si>
+  <si>
+    <t>TC-SIGNIN-011</t>
+  </si>
+  <si>
+    <t>Verify Forgot Password Link Navigation</t>
+  </si>
+  <si>
+    <t>To verify that clicking the "Forgot Your Password?" link on the Sign-In page redirects the user to the correct "Forgot Password" page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2. Locate and click on the "Forgot Your Password?" link.
+3. Wait for the page to load.
+4. Verify the URL and the page title.</t>
+  </si>
+  <si>
+    <t>User should be redirected to the "Forgot Password" page. The URL should match the "Forgot Password" page endpoint, and the page title should confirm the navigation.</t>
+  </si>
+  <si>
+    <t>User is redirected to the "Forgot Password" page and the page title is confirm the navigation.</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,6 +1203,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1804,7 +1831,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1833,7 +1860,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1862,7 +1889,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1891,7 +1918,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1917,7 +1944,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1943,7 +1970,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1969,7 +1996,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1982,10 +2009,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2055,7 +2082,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2084,7 +2111,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2113,7 +2140,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2142,7 +2169,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2168,7 +2195,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2197,7 +2224,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2226,7 +2253,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2252,7 +2279,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2281,7 +2308,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2311,6 +2338,35 @@
         <v>73</v>
       </c>
       <c r="I11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" ht="162" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
     <sheet name="SignIn_Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="ForgotPassword_Tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -527,6 +528,26 @@
   </si>
   <si>
     <t>User is redirected to the "Forgot Password" page and the page title is confirm the navigation.</t>
+  </si>
+  <si>
+    <t>FP-001</t>
+  </si>
+  <si>
+    <t>Verify email input field availability</t>
+  </si>
+  <si>
+    <t>To ensure that the email input field is available on the "Forgot Password" page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Verify the presence of the email input field.</t>
+  </si>
+  <si>
+    <t>Email input field should be present.</t>
+  </si>
+  <si>
+    <t>FP-002</t>
   </si>
 </sst>
 </file>
@@ -1199,16 +1220,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1810,7 +1831,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1819,16 +1840,16 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="14" t="s">
@@ -1839,7 +1860,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1848,16 +1869,16 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -1868,25 +1889,25 @@
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="14" t="s">
@@ -1897,25 +1918,25 @@
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="14" t="s">
@@ -1926,22 +1947,22 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -1952,22 +1973,22 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -1978,22 +1999,22 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -2011,8 +2032,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2061,7 +2082,7 @@
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2070,16 +2091,16 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -2090,7 +2111,7 @@
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2099,10 +2120,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2119,7 +2140,7 @@
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2128,10 +2149,10 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2148,25 +2169,25 @@
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -2177,7 +2198,7 @@
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2186,10 +2207,10 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2203,25 +2224,25 @@
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2232,25 +2253,25 @@
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -2261,22 +2282,22 @@
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -2287,25 +2308,25 @@
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -2316,22 +2337,22 @@
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2345,25 +2366,25 @@
       <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -2380,4 +2401,92 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="31.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="44.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="26.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="23.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="23.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="64.8" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" ht="16.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="134">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -548,6 +548,11 @@
   </si>
   <si>
     <t>FP-002</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh@mailinator.com",
+    }</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,6 +1226,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1831,7 +1839,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1840,19 +1848,19 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1860,7 +1868,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1869,19 +1877,19 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1889,28 +1897,28 @@
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1918,28 +1926,28 @@
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1947,25 +1955,25 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1973,25 +1981,25 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1999,25 +2007,25 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2033,7 +2041,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2082,7 +2090,7 @@
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2091,19 +2099,19 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2111,7 +2119,7 @@
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2120,10 +2128,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2132,7 +2140,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2140,7 +2148,7 @@
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2149,10 +2157,10 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2161,7 +2169,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2169,28 +2177,28 @@
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2198,7 +2206,7 @@
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2207,16 +2215,16 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2224,28 +2232,28 @@
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2253,28 +2261,28 @@
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2282,25 +2290,25 @@
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2308,28 +2316,28 @@
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2337,22 +2345,22 @@
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2408,8 +2416,8 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -2477,9 +2485,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" ht="16.2" spans="1:1">
+    <row r="3" ht="72" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>132</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="140">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -552,7 +552,35 @@
   <si>
     <t>{
         "Email": "navjotsingh@mailinator.com",
+       "Password":
+          "Navjot@001",
+"ConfirmPassword":
+"Navjot@001"
     }</t>
+  </si>
+  <si>
+    <t>FP-003</t>
+  </si>
+  <si>
+    <t>Verify error message for invalid email</t>
+  </si>
+  <si>
+    <t>To ensure that an appropriate error message is displayed for invalid email formats.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Enter an invalid email format 
+3. Click the submit button.
+4. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh.com"
+    }</t>
+  </si>
+  <si>
+    <t>An error message  should be displayed.</t>
   </si>
 </sst>
 </file>
@@ -1233,14 +1261,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1839,7 +1867,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1848,16 +1876,16 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -1868,7 +1896,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1877,16 +1905,16 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="15" t="s">
@@ -1897,25 +1925,25 @@
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="15" t="s">
@@ -1926,25 +1954,25 @@
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -1955,22 +1983,22 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="15" t="s">
@@ -1981,22 +2009,22 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="15" t="s">
@@ -2007,22 +2035,22 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="15" t="s">
@@ -2090,7 +2118,7 @@
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2099,16 +2127,16 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -2119,7 +2147,7 @@
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2128,10 +2156,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2148,7 +2176,7 @@
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2157,10 +2185,10 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2177,25 +2205,25 @@
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -2206,7 +2234,7 @@
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2215,10 +2243,10 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2232,25 +2260,25 @@
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="13" t="s">
@@ -2261,25 +2289,25 @@
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="13" t="s">
@@ -2290,22 +2318,22 @@
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="13" t="s">
@@ -2316,25 +2344,25 @@
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="14" t="s">
@@ -2345,22 +2373,22 @@
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2414,13 +2442,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="34.5555555555556" customWidth="1"/>
@@ -2485,13 +2513,42 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:6">
+    <row r="3" ht="115.2" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>133</v>
       </c>
+    </row>
+    <row r="4" ht="81" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -547,6 +547,9 @@
     <t>Email input field should be present.</t>
   </si>
   <si>
+    <t>Email input field is present on the forgot password page.</t>
+  </si>
+  <si>
     <t>FP-002</t>
   </si>
   <si>
@@ -580,7 +583,37 @@
     }</t>
   </si>
   <si>
+    <t>An error message  should be displayed  for invalid email format.</t>
+  </si>
+  <si>
+    <t>An error message is displayed for invalid email format as expected.</t>
+  </si>
+  <si>
+    <t>FP-004</t>
+  </si>
+  <si>
+    <t>Verify error message for empty email field</t>
+  </si>
+  <si>
+    <t>To ensure that an error message is displayed if the email field is left empty.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Don't enter anything in email address field. 
+3. Click the submit button.
+4. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": ""
+    }</t>
+  </si>
+  <si>
     <t>An error message  should be displayed.</t>
+  </si>
+  <si>
+    <t>An error message is displayed for empty email address field as expected.</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,13 +1288,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1876,10 +1903,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1888,7 +1915,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1905,10 +1932,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1917,7 +1944,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1937,7 +1964,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1946,7 +1973,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1966,7 +1993,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1975,7 +2002,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2001,7 +2028,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2027,7 +2054,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2053,7 +2080,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2127,10 +2154,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2139,7 +2166,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2156,7 +2183,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2168,7 +2195,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2185,7 +2212,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2197,7 +2224,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2226,7 +2253,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2243,7 +2270,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2252,7 +2279,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2281,7 +2308,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2310,7 +2337,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2336,7 +2363,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2353,10 +2380,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2365,7 +2392,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2382,7 +2409,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2445,7 +2472,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -2490,7 +2517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="64.8" spans="1:7">
+    <row r="2" ht="64.8" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
@@ -2512,43 +2539,72 @@
       <c r="G2" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="3" ht="115.2" spans="1:6">
+    <row r="3" ht="145.8" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>133</v>
+      <c r="F3" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:7">
+    <row r="4" ht="81" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>136</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="5" spans="7:7">
-      <c r="G5" s="9"/>
+    <row r="5" ht="97.2" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9995" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
@@ -2095,8 +2095,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2471,8 +2471,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9995" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="154">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -553,13 +553,29 @@
     <t>FP-002</t>
   </si>
   <si>
+    <t>Verify successful reset link sent for valid email</t>
+  </si>
+  <si>
+    <t>To ensure that a success message is displayed when a registered email is submitted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page
+3.Enter a registered email address.
+4.. Click the 'Reset Your Password' button.
+5. Verify the success message and check for the email link.</t>
+  </si>
+  <si>
     <t>{
-        "Email": "navjotsingh@mailinator.com",
-       "Password":
-          "Navjot@001",
-"ConfirmPassword":
-"Navjot@001"
+        "Email": "navjotsingh@mailinator.com"
     }</t>
+  </si>
+  <si>
+    <t>A success message should be displayed.</t>
+  </si>
+  <si>
+    <t>A success message is displayed.</t>
   </si>
   <si>
     <t>FP-003</t>
@@ -574,7 +590,7 @@
     <t>1. Navigate to 'sign in' page
 2.Navigate to 'Forgot Password' page.
 3.Enter an invalid email format 
-3. Click the submit button.
+3. Click the  'Reset Your Password' button.
 4. Verify the displayed error message.</t>
   </si>
   <si>
@@ -601,7 +617,7 @@
     <t>1. Navigate to 'sign in' page
 2.Navigate to 'Forgot Password' page.
 3.Don't enter anything in email address field. 
-3. Click the submit button.
+3. Click the  'Reset Your Password' button.
 4. Verify the displayed error message.</t>
   </si>
   <si>
@@ -2095,7 +2111,7 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2471,8 +2487,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -2543,67 +2559,82 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" ht="145.8" spans="1:6">
+    <row r="3" ht="129.6" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:8">
+    <row r="4" ht="97.2" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="5" ht="97.2" spans="1:8">
+    <row r="5" ht="113.4" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -617,7 +617,7 @@
     <t>1. Navigate to 'sign in' page
 2.Navigate to 'Forgot Password' page.
 3.Don't enter anything in email address field. 
-3. Click the  'Reset Your Password' button.
+3. Click the 'Reset Your Password' button.
 4. Verify the displayed error message.</t>
   </si>
   <si>
@@ -630,6 +630,33 @@
   </si>
   <si>
     <t>An error message is displayed for empty email address field as expected.</t>
+  </si>
+  <si>
+    <t>FP-005</t>
+  </si>
+  <si>
+    <t>Verify error message for unregistered email</t>
+  </si>
+  <si>
+    <t>To ensure that an error message is displayed when an unregistered email is submitted.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Enter an unregistered email address.
+4. Click the 'Reset Your Password' button.
+5. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "yadvir@gmail.com"
+    }</t>
+  </si>
+  <si>
+    <t>An error message like "Email not found" should be displayed.</t>
+  </si>
+  <si>
+    <t>Error message is not shown</t>
   </si>
 </sst>
 </file>
@@ -2485,13 +2512,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="34.5555555555556" customWidth="1"/>
@@ -2533,7 +2560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="64.8" spans="1:8">
+    <row r="2" ht="64.8" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
@@ -2558,8 +2585,11 @@
       <c r="H2" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="3" ht="129.6" spans="1:8">
+    <row r="3" ht="129.6" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>133</v>
       </c>
@@ -2584,8 +2614,11 @@
       <c r="H3" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" ht="97.2" spans="1:8">
+    <row r="4" ht="97.2" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>140</v>
       </c>
@@ -2610,8 +2643,11 @@
       <c r="H4" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="5" ht="113.4" spans="1:8">
+    <row r="5" ht="113.4" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>147</v>
       </c>
@@ -2635,11 +2671,45 @@
       </c>
       <c r="H5" s="7" t="s">
         <v>153</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" ht="113.4" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"Passed,Failed,In Progress"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -547,7 +547,116 @@
     <t>Email input field should be present.</t>
   </si>
   <si>
+    <t>Email input field is present on the forgot password page.</t>
+  </si>
+  <si>
     <t>FP-002</t>
+  </si>
+  <si>
+    <t>Verify successful reset link sent for valid email</t>
+  </si>
+  <si>
+    <t>To ensure that a success message is displayed when a registered email is submitted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page
+3.Enter a registered email address.
+4.. Click the 'Reset Your Password' button.
+5. Verify the success message and check for the email link.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh@mailinator.com"
+    }</t>
+  </si>
+  <si>
+    <t>A success message should be displayed.</t>
+  </si>
+  <si>
+    <t>A success message is displayed.</t>
+  </si>
+  <si>
+    <t>FP-003</t>
+  </si>
+  <si>
+    <t>Verify error message for invalid email</t>
+  </si>
+  <si>
+    <t>To ensure that an appropriate error message is displayed for invalid email formats.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Enter an invalid email format 
+3. Click the  'Reset Your Password' button.
+4. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh.com"
+    }</t>
+  </si>
+  <si>
+    <t>An error message  should be displayed  for invalid email format.</t>
+  </si>
+  <si>
+    <t>An error message is displayed for invalid email format as expected.</t>
+  </si>
+  <si>
+    <t>FP-004</t>
+  </si>
+  <si>
+    <t>Verify error message for empty email field</t>
+  </si>
+  <si>
+    <t>To ensure that an error message is displayed if the email field is left empty.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Don't enter anything in email address field. 
+3. Click the 'Reset Your Password' button.
+4. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": ""
+    }</t>
+  </si>
+  <si>
+    <t>An error message  should be displayed.</t>
+  </si>
+  <si>
+    <t>An error message is displayed for empty email address field as expected.</t>
+  </si>
+  <si>
+    <t>FP-005</t>
+  </si>
+  <si>
+    <t>Verify error message for unregistered email</t>
+  </si>
+  <si>
+    <t>To ensure that an error message is displayed when an unregistered email is submitted.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Enter an unregistered email address.
+4. Click the 'Reset Your Password' button.
+5. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "yadvir@gmail.com"
+    }</t>
+  </si>
+  <si>
+    <t>An error message like "Email not found" should be displayed.</t>
+  </si>
+  <si>
+    <t>Error message is not shown</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,9 +1339,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1831,7 +1937,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1849,10 +1955,10 @@
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1860,7 +1966,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1878,10 +1984,10 @@
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1889,28 +1995,28 @@
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1918,28 +2024,28 @@
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1947,25 +2053,25 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1973,25 +2079,25 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1999,25 +2105,25 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2032,8 +2138,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2082,7 +2188,7 @@
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2100,10 +2206,10 @@
       <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2111,7 +2217,7 @@
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2123,7 +2229,7 @@
       <c r="E3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2132,7 +2238,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2140,7 +2246,7 @@
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2152,7 +2258,7 @@
       <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2161,7 +2267,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2169,28 +2275,28 @@
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2198,7 +2304,7 @@
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2210,13 +2316,13 @@
       <c r="E6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2224,28 +2330,28 @@
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2253,28 +2359,28 @@
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2282,25 +2388,25 @@
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2308,10 +2414,10 @@
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2326,10 +2432,10 @@
       <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2337,10 +2443,10 @@
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2349,10 +2455,10 @@
       <c r="E11" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2406,13 +2512,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="34.5555555555556" customWidth="1"/>
@@ -2454,7 +2560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="64.8" spans="1:7">
+    <row r="2" ht="64.8" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
@@ -2476,15 +2582,134 @@
       <c r="G2" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="3" ht="16.2" spans="1:1">
+    <row r="3" ht="129.6" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="97.2" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" ht="113.4" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" ht="113.4" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"Passed,Failed,In Progress"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
     <sheet name="SignIn_Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="ForgotPassword_Tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -527,6 +528,162 @@
   </si>
   <si>
     <t>User is redirected to the "Forgot Password" page and the page title is confirm the navigation.</t>
+  </si>
+  <si>
+    <t>TC-SIGNIN-012</t>
+  </si>
+  <si>
+    <t>Verify sign-in after password reset</t>
+  </si>
+  <si>
+    <t>Test signing in with the new password after resetting it.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Enter Valid Email Address
+3.Enter resetted Password
+4.Click on 'sign in' button</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh@mailinator.com",
+        "Password": "Navjot@001"
+    }</t>
+  </si>
+  <si>
+    <t>User should be able to log in with the new password.</t>
+  </si>
+  <si>
+    <t>User is able to log in with the new password as expected.</t>
+  </si>
+  <si>
+    <t>FP-001</t>
+  </si>
+  <si>
+    <t>Verify email input field availability</t>
+  </si>
+  <si>
+    <t>To ensure that the email input field is available on the "Forgot Password" page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Verify the presence of the email input field.</t>
+  </si>
+  <si>
+    <t>Email input field should be present.</t>
+  </si>
+  <si>
+    <t>Email input field is present on the forgot password page.</t>
+  </si>
+  <si>
+    <t>FP-002</t>
+  </si>
+  <si>
+    <t>Verify successful reset link sent for valid email</t>
+  </si>
+  <si>
+    <t>To ensure that a success message is displayed when a registered email is submitted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page
+3.Enter a registered email address.
+4.. Click the 'Reset Your Password' button.
+5. Verify the success message and check for the email link.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh@mailinator.com"
+    }</t>
+  </si>
+  <si>
+    <t>A success message should be displayed.</t>
+  </si>
+  <si>
+    <t>A success message is displayed.</t>
+  </si>
+  <si>
+    <t>FP-003</t>
+  </si>
+  <si>
+    <t>Verify error message for invalid email</t>
+  </si>
+  <si>
+    <t>To ensure that an appropriate error message is displayed for invalid email formats.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Enter an invalid email format 
+3. Click the  'Reset Your Password' button.
+4. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh.com"
+    }</t>
+  </si>
+  <si>
+    <t>An error message  should be displayed  for invalid email format.</t>
+  </si>
+  <si>
+    <t>An error message is displayed for invalid email format as expected.</t>
+  </si>
+  <si>
+    <t>FP-004</t>
+  </si>
+  <si>
+    <t>Verify error message for empty email field</t>
+  </si>
+  <si>
+    <t>To ensure that an error message is displayed if the email field is left empty.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Don't enter anything in email address field. 
+3. Click the 'Reset Your Password' button.
+4. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": ""
+    }</t>
+  </si>
+  <si>
+    <t>An error message  should be displayed.</t>
+  </si>
+  <si>
+    <t>An error message is displayed for empty email address field as expected.</t>
+  </si>
+  <si>
+    <t>FP-005</t>
+  </si>
+  <si>
+    <t>Verify error message for unregistered email</t>
+  </si>
+  <si>
+    <t>To ensure that an error message is displayed when an unregistered email is submitted.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Navigate to 'Forgot Password' page.
+3.Enter an unregistered email address.
+4. Click the 'Reset Your Password' button.
+5. Verify the displayed error message.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "yadvir@gmail.com"
+    }</t>
+  </si>
+  <si>
+    <t>An error message like "Email not found" should be displayed.</t>
+  </si>
+  <si>
+    <t>Error message is not shown</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,19 +1356,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1819,10 +1973,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1831,7 +1985,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1848,10 +2002,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1860,7 +2014,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1880,7 +2034,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1889,7 +2043,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1909,7 +2063,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1918,7 +2072,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1944,7 +2098,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1970,7 +2124,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1996,7 +2150,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2009,10 +2163,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2070,10 +2224,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2082,7 +2236,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2099,7 +2253,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2111,7 +2265,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2128,7 +2282,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2140,7 +2294,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2169,7 +2323,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2186,7 +2340,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2195,7 +2349,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2224,7 +2378,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2244,7 +2398,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2253,7 +2407,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2279,7 +2433,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2296,10 +2450,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2308,7 +2462,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2325,7 +2479,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2345,28 +2499,57 @@
       <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2380,4 +2563,211 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="34.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="31.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="44.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="26.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="23.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="23.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="64.8" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" ht="129.6" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="97.2" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" ht="113.4" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" ht="113.4" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"Passed,Failed,In Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9995" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -528,6 +528,33 @@
   </si>
   <si>
     <t>User is redirected to the "Forgot Password" page and the page title is confirm the navigation.</t>
+  </si>
+  <si>
+    <t>TC-SIGNIN-012</t>
+  </si>
+  <si>
+    <t>Verify sign-in after password reset</t>
+  </si>
+  <si>
+    <t>Test signing in with the new password after resetting it.</t>
+  </si>
+  <si>
+    <t>1. Navigate to 'sign in' page
+2.Enter Valid Email Address
+3.Enter resetted Password
+4.Click on 'sign in' button</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh@mailinator.com",
+        "Password": "Navjot@001"
+    }</t>
+  </si>
+  <si>
+    <t>User should be able to log in with the new password.</t>
+  </si>
+  <si>
+    <t>User is able to log in with the new password as expected.</t>
   </si>
   <si>
     <t>FP-001</t>
@@ -1332,13 +1359,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1946,10 +1973,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1975,10 +2002,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2007,7 +2034,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2036,7 +2063,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2136,10 +2163,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2197,10 +2224,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2226,7 +2253,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2255,7 +2282,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2313,7 +2340,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2423,10 +2450,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2452,7 +2479,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2494,6 +2521,35 @@
         <v>126</v>
       </c>
       <c r="I12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2514,8 +2570,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -2562,28 +2618,28 @@
     </row>
     <row r="2" ht="64.8" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
         <v>66</v>
@@ -2591,28 +2647,28 @@
     </row>
     <row r="3" ht="129.6" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>136</v>
+      <c r="E3" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
@@ -2620,28 +2676,28 @@
     </row>
     <row r="4" ht="97.2" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
@@ -2649,28 +2705,28 @@
     </row>
     <row r="5" ht="113.4" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
@@ -2678,28 +2734,28 @@
     </row>
     <row r="6" ht="113.4" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>157</v>
+      <c r="E6" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I6" t="s">
         <v>74</v>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -547,7 +547,9 @@
   <si>
     <t>{
         "Email": "navjotsingh@mailinator.com",
-        "Password": "Navjot@001"
+        "Password": "Navjot@001",
+"FirstName": "Navjot",
+        "LastName": "Singh"
     }</t>
   </si>
   <si>
@@ -2165,8 +2167,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2524,7 +2526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" ht="81" spans="1:9">
+    <row r="13" ht="113.4" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>127</v>
       </c>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
     <sheet name="SignIn_Tests" sheetId="2" r:id="rId2"/>
     <sheet name="ForgotPassword_Tests" sheetId="3" r:id="rId3"/>
+    <sheet name="HomePage_Tests " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="175">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -686,6 +687,33 @@
   </si>
   <si>
     <t>Error message is not shown</t>
+  </si>
+  <si>
+    <t>HP-001</t>
+  </si>
+  <si>
+    <t>Verify the homepage logo is visible and clickable</t>
+  </si>
+  <si>
+    <t>Ensure the logo on the homepage is displayed correctly and is clickable, redirecting to the homepage when clicked.</t>
+  </si>
+  <si>
+    <t>1. Open the application in a browser.
+2. Locate the logo element on the homepage.
+3. Verify that the logo is visible.
+4. Click on the logo.
+5. Verify that clicking the logo redirects the user to the homepage.</t>
+  </si>
+  <si>
+    <t>Not applicable.</t>
+  </si>
+  <si>
+    <t>1. The logo should be visible.
+2. Clicking the logo should navigate the user back to the homepage.</t>
+  </si>
+  <si>
+    <t>1. The logo is visible on the homepage.
+2. Clicking the logo successfully navigates the user back to the homepage.</t>
   </si>
 </sst>
 </file>
@@ -698,7 +726,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +751,13 @@
       <color rgb="FF091E42"/>
       <name val="Verdana"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1208,137 +1243,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +1392,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,19 +1407,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1966,7 +2004,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1975,19 +2013,19 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1995,7 +2033,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2004,19 +2042,19 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2024,28 +2062,28 @@
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2053,28 +2091,28 @@
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2082,25 +2120,25 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2108,25 +2146,25 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2134,25 +2172,25 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2167,7 +2205,7 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2217,7 +2255,7 @@
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2226,19 +2264,19 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2246,7 +2284,7 @@
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2255,10 +2293,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2267,7 +2305,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2275,7 +2313,7 @@
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2284,10 +2322,10 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2296,7 +2334,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2304,28 +2342,28 @@
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2333,7 +2371,7 @@
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2342,16 +2380,16 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2359,28 +2397,28 @@
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2388,28 +2426,28 @@
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2417,25 +2455,25 @@
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2443,28 +2481,28 @@
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2472,22 +2510,22 @@
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2501,25 +2539,25 @@
       <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -2533,22 +2571,22 @@
       <c r="B13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="4" t="s">
         <v>133</v>
       </c>
       <c r="I13" t="s">
@@ -2572,8 +2610,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -2622,25 +2660,25 @@
       <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I2" t="s">
@@ -2651,25 +2689,25 @@
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>146</v>
       </c>
       <c r="I3" t="s">
@@ -2680,25 +2718,25 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>149</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>153</v>
       </c>
       <c r="I4" t="s">
@@ -2709,25 +2747,25 @@
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I5" t="s">
@@ -2738,25 +2776,25 @@
       <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>167</v>
       </c>
       <c r="I6" t="s">
@@ -2772,4 +2810,93 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="38.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="38.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="26.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="25.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="23.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="25.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="145.8" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"Passed,Failed,In Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -714,6 +714,27 @@
   <si>
     <t>1. The logo is visible on the homepage.
 2. Clicking the logo successfully navigates the user back to the homepage.</t>
+  </si>
+  <si>
+    <t>HP-002</t>
+  </si>
+  <si>
+    <t>Verify search field visibility and type</t>
+  </si>
+  <si>
+    <t>Ensure the search field is visible on the page and is of type input to accept user input.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Home page.
+2. Locate the search field.
+3. Check if the search field is visible.
+4. Verify the type of the search field is "input".</t>
+  </si>
+  <si>
+    <t>The search field should be visible on the page, and the element type should be "input".</t>
+  </si>
+  <si>
+    <t>Search field is visible and confirmed as input.</t>
   </si>
 </sst>
 </file>
@@ -2815,13 +2836,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
@@ -2888,11 +2909,39 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" ht="97.2" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"Passed,Failed,In Progress"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -1373,7 +1373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1394,9 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2004,7 +2001,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2013,19 +2010,19 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2033,7 +2030,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2042,19 +2039,19 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2062,28 +2059,28 @@
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2091,28 +2088,28 @@
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2120,25 +2117,25 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2146,25 +2143,25 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2172,25 +2169,25 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2255,7 +2252,7 @@
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2264,19 +2261,19 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2284,7 +2281,7 @@
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2293,10 +2290,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2305,7 +2302,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2313,7 +2310,7 @@
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2322,10 +2319,10 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2334,7 +2331,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2342,28 +2339,28 @@
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2371,7 +2368,7 @@
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2380,16 +2377,16 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2397,28 +2394,28 @@
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2426,28 +2423,28 @@
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2455,25 +2452,25 @@
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2481,28 +2478,28 @@
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2510,22 +2507,22 @@
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2539,25 +2536,25 @@
       <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -2577,10 +2574,10 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2660,25 +2657,25 @@
       <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I2" t="s">
@@ -2689,25 +2686,25 @@
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>146</v>
       </c>
       <c r="I3" t="s">
@@ -2718,25 +2715,25 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>153</v>
       </c>
       <c r="I4" t="s">
@@ -2747,25 +2744,25 @@
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>160</v>
       </c>
       <c r="I5" t="s">
@@ -2776,25 +2773,25 @@
       <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>167</v>
       </c>
       <c r="I6" t="s">
@@ -2818,7 +2815,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="181">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -714,6 +714,27 @@
   <si>
     <t>1. The logo is visible on the homepage.
 2. Clicking the logo successfully navigates the user back to the homepage.</t>
+  </si>
+  <si>
+    <t>HP-002</t>
+  </si>
+  <si>
+    <t>Verify search field visibility and type</t>
+  </si>
+  <si>
+    <t>Ensure the search field is accessible and functional, allowing users to input search queries.</t>
+  </si>
+  <si>
+    <t>1. Open the homepage.
+2. Locate the logo element on the homepage.
+3. Ensure the search field is visible.
+4. Check the input type attribute of the field (i.e., text).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The search field should be  visible and should accept text input. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The search field is visible and accepts text input. </t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,6 +1411,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2010,10 +2034,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2022,7 +2046,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2039,10 +2063,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2051,7 +2075,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2071,7 +2095,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2080,7 +2104,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2100,7 +2124,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2109,7 +2133,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2135,7 +2159,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2161,7 +2185,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2187,7 +2211,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2202,7 +2226,7 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2261,10 +2285,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2273,7 +2297,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2290,7 +2314,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2302,7 +2326,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2319,7 +2343,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2331,7 +2355,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2360,7 +2384,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2377,7 +2401,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2386,7 +2410,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2415,7 +2439,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2435,7 +2459,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2444,7 +2468,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2470,7 +2494,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2487,10 +2511,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2499,7 +2523,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2516,7 +2540,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2548,7 +2572,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2574,7 +2598,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2669,7 +2693,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2812,13 +2836,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
@@ -2885,11 +2909,42 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" ht="113.4" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"Passed,Failed,In Progress"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="181">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -722,19 +722,19 @@
     <t>Verify search field visibility and type</t>
   </si>
   <si>
-    <t>Ensure the search field is visible on the page and is of type input to accept user input.</t>
-  </si>
-  <si>
-    <t>1. Navigate to the Home page.
-2. Locate the search field.
-3. Check if the search field is visible.
-4. Verify the type of the search field is "input".</t>
-  </si>
-  <si>
-    <t>The search field should be visible on the page, and the element type should be "input".</t>
-  </si>
-  <si>
-    <t>Search field is visible and confirmed as input.</t>
+    <t>Ensure the search field is accessible and functional, allowing users to input search queries.</t>
+  </si>
+  <si>
+    <t>1. Open the homepage.
+2. Locate the logo element on the homepage.
+3. Ensure the search field is visible.
+4. Check the input type attribute of the field (i.e., text).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The search field should be  visible and should accept text input. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The search field is visible and accepts text input. </t>
   </si>
 </sst>
 </file>
@@ -1413,11 +1413,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2025,7 +2025,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2043,7 +2043,7 @@
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="14" t="s">
@@ -2054,7 +2054,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2072,7 +2072,7 @@
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -2083,25 +2083,25 @@
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="14" t="s">
@@ -2112,25 +2112,25 @@
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="14" t="s">
@@ -2141,22 +2141,22 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -2167,22 +2167,22 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -2193,22 +2193,22 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -2226,7 +2226,7 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2276,7 +2276,7 @@
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2294,7 +2294,7 @@
       <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -2305,7 +2305,7 @@
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2317,7 +2317,7 @@
       <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2334,7 +2334,7 @@
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2346,7 +2346,7 @@
       <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2363,25 +2363,25 @@
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -2392,7 +2392,7 @@
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2404,7 +2404,7 @@
       <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2418,25 +2418,25 @@
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2447,25 +2447,25 @@
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -2476,22 +2476,22 @@
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -2502,10 +2502,10 @@
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2520,7 +2520,7 @@
       <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -2531,10 +2531,10 @@
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2543,10 +2543,10 @@
       <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2560,25 +2560,25 @@
       <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -2601,7 +2601,7 @@
       <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2681,25 +2681,25 @@
       <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I2" t="s">
@@ -2710,25 +2710,25 @@
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>146</v>
       </c>
       <c r="I3" t="s">
@@ -2739,25 +2739,25 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>153</v>
       </c>
       <c r="I4" t="s">
@@ -2768,25 +2768,25 @@
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>160</v>
       </c>
       <c r="I5" t="s">
@@ -2797,25 +2797,25 @@
       <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>167</v>
       </c>
       <c r="I6" t="s">
@@ -2838,8 +2838,8 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -2909,34 +2909,37 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="97.2" spans="1:8">
+    <row r="3" ht="113.4" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>180</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="187">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -735,6 +735,27 @@
   </si>
   <si>
     <t xml:space="preserve">The search field is visible and accepts text input. </t>
+  </si>
+  <si>
+    <t>HP-003</t>
+  </si>
+  <si>
+    <t>Verify the cart icon is visible and clickable</t>
+  </si>
+  <si>
+    <t>Ensure the cart icon on the homepage is displayed correctly and is clickable.</t>
+  </si>
+  <si>
+    <t>1. Open the application in a browser.
+2. Locate the cart icon element on the homepage.
+3. Verify that the cart icon is visible. and clickable.</t>
+  </si>
+  <si>
+    <t>The cart icon should be 
+visible and clickable</t>
+  </si>
+  <si>
+    <t>The cart icon is visible and clickable as expected.</t>
   </si>
 </sst>
 </file>
@@ -2836,13 +2857,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
@@ -2917,7 +2938,7 @@
       <c r="A3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2939,6 +2960,35 @@
         <v>180</v>
       </c>
       <c r="I3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="97.2" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="197">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -751,11 +751,46 @@
 3. Verify that the cart icon is visible. and clickable.</t>
   </si>
   <si>
-    <t>The cart icon should be 
-visible and clickable</t>
+    <t>The cart icon should be visible and clickable</t>
   </si>
   <si>
     <t>The cart icon is visible and clickable as expected.</t>
+  </si>
+  <si>
+    <t>HP-004</t>
+  </si>
+  <si>
+    <t>Verify the homepage banner  is visible and clickable</t>
+  </si>
+  <si>
+    <t>To ensure the banner image is displayed, clickable, and navigates to the new yoga collection</t>
+  </si>
+  <si>
+    <t>1. Open the homepage.
+2. Check if the banner image is displayed properly.
+3. Click on the banner image.
+4. Verify the navigation to the new yoga collection.</t>
+  </si>
+  <si>
+    <t>The banner image should be clickable and navigated to the correct page (new yoga collection).</t>
+  </si>
+  <si>
+    <t>HP-005</t>
+  </si>
+  <si>
+    <t>Verify Hot Seller Product Images and Navigation</t>
+  </si>
+  <si>
+    <t>To ensure the images are functional (visible and clickable) and navigates to the correct product page.</t>
+  </si>
+  <si>
+    <t>1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Click on a hot seller image.
+4. Verify navigation to the correct product page displayed in the image.</t>
+  </si>
+  <si>
+    <t>Hot seller images are visible, clickable, and navigate to the correct product page.</t>
   </si>
 </sst>
 </file>
@@ -2857,13 +2892,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
@@ -2992,6 +3027,52 @@
         <v>66</v>
       </c>
     </row>
+    <row r="5" ht="97.2" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" ht="129.6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="198">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>The banner image should be clickable and navigated to the correct page (new yoga collection).</t>
+  </si>
+  <si>
+    <t>The banner image is clickable and navigated to the correct page (new yoga collection).</t>
   </si>
   <si>
     <t>HP-005</t>
@@ -2894,8 +2897,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -3027,7 +3030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" ht="97.2" spans="1:7">
+    <row r="5" ht="97.2" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>187</v>
       </c>
@@ -3049,28 +3052,34 @@
       <c r="G5" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" ht="129.6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>172</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="199">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -793,7 +793,10 @@
 4. Verify navigation to the correct product page displayed in the image.</t>
   </si>
   <si>
-    <t>Hot seller images are visible, clickable, and navigate to the correct product page.</t>
+    <t>Hot seller images should be visible, clickable, and navigated to the correct product page.</t>
+  </si>
+  <si>
+    <t>Hot seller images are clickable and navigated to the correct product page.</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,9 +1473,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2093,10 +2093,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2105,7 +2105,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2122,10 +2122,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2134,7 +2134,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2163,7 +2163,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2192,7 +2192,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2356,7 +2356,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2385,7 +2385,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2414,7 +2414,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2469,7 +2469,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2527,7 +2527,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2570,10 +2570,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2582,7 +2582,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2631,7 +2631,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2657,7 +2657,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2752,7 +2752,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2897,8 +2897,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -2968,7 +2968,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       <c r="A3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>180</v>
       </c>
       <c r="I3" t="s">
@@ -3020,10 +3020,10 @@
       <c r="F4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>186</v>
       </c>
       <c r="I4" t="s">
@@ -3037,49 +3037,55 @@
       <c r="B5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" ht="129.6" spans="1:7">
+    <row r="6" ht="129.6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>197</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -797,6 +797,47 @@
   </si>
   <si>
     <t>Hot seller images are clickable and navigated to the correct product page.</t>
+  </si>
+  <si>
+    <t>HP-006</t>
+  </si>
+  <si>
+    <t>Verify Add to Cart Button Visibility on Hover</t>
+  </si>
+  <si>
+    <t>To ensure that the "Add to Cart" button becomes visible when hovering over a Hot Seller image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+4.Check if the "Add to Cart" button appears. </t>
+  </si>
+  <si>
+    <t>The "Add to Cart" button should be visible only when hovering over a Hot Seller product image.</t>
+  </si>
+  <si>
+    <t>HP-007</t>
+  </si>
+  <si>
+    <t>Verify Navigation and Prompt on Add to Cart Without Selecting Options</t>
+  </si>
+  <si>
+    <t>Verify that clicking the "Add to Cart" button after hovering over a product image (without selecting size or color) navigates to the product page and displays a message prompting the user to choose options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+4.Check if the "Add to Cart" button appears.
+5. Verify navigation to the product page.
+6. Check for the message prompting the user to choose options (e.g., size and color). </t>
+  </si>
+  <si>
+    <t>The user should be navigated to the product page, and a message "You need to choose options" should be displayed.</t>
+  </si>
+  <si>
+    <t>HP-008</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1473,6 +1514,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2093,10 +2143,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2105,7 +2155,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2122,10 +2172,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2134,7 +2184,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2154,7 +2204,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2163,7 +2213,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2183,7 +2233,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2192,7 +2242,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2218,7 +2268,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2244,7 +2294,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2270,7 +2320,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2285,7 +2335,7 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2344,10 +2394,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2356,7 +2406,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2373,7 +2423,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2385,7 +2435,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2402,7 +2452,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2414,7 +2464,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2443,7 +2493,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2460,7 +2510,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2469,7 +2519,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2498,7 +2548,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2518,7 +2568,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2527,7 +2577,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2553,7 +2603,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2570,10 +2620,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2582,7 +2632,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2599,7 +2649,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2631,7 +2681,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2657,7 +2707,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="11" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2690,7 +2740,7 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2752,7 +2802,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2895,13 +2945,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
@@ -2968,7 +3018,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3086,6 +3136,64 @@
       </c>
       <c r="I6" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="7" ht="129.6" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="115.2" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" ht="48.6" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="217">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -817,6 +817,9 @@
     <t>The "Add to Cart" button should be visible only when hovering over a Hot Seller product image.</t>
   </si>
   <si>
+    <t>The "Add to Cart" button is visible only when hovering over a Hot Seller product image.</t>
+  </si>
+  <si>
     <t>HP-007</t>
   </si>
   <si>
@@ -837,7 +840,31 @@
     <t>The user should be navigated to the product page, and a message "You need to choose options" should be displayed.</t>
   </si>
   <si>
+    <t>The user has navigated to the product page, and a message "You need to choose options" has displayed.</t>
+  </si>
+  <si>
     <t>HP-008</t>
+  </si>
+  <si>
+    <t>Verify Navigation and Prompt on Add to Cart With Options Selected</t>
+  </si>
+  <si>
+    <t>To ensure successful addition to cart and proper navigation to the cart page.</t>
+  </si>
+  <si>
+    <t>1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+4. Select options (size, color, etc.).
+5. Click the "Add to Cart" button.
+6. Verify the success message with the cart link.
+7. Click the cart link to navigate to the cart page.</t>
+  </si>
+  <si>
+    <t>The success message with a cart link should appear, and clicking the link should navigate to the cart page.</t>
+  </si>
+  <si>
+    <t>The success message with a cart link is appeared, and clicking the link is navigated to the cart page.</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,12 +1544,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2143,10 +2164,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2155,7 +2176,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2172,10 +2193,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2184,7 +2205,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2204,7 +2225,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2213,7 +2234,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2233,7 +2254,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2242,7 +2263,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2268,7 +2289,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2294,7 +2315,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2320,7 +2341,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2394,10 +2415,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2406,7 +2427,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2423,7 +2444,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2435,7 +2456,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2452,7 +2473,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2464,7 +2485,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2493,7 +2514,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2510,7 +2531,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2519,7 +2540,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2548,7 +2569,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2568,7 +2589,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2577,7 +2598,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2603,7 +2624,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2620,10 +2641,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2632,7 +2653,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2649,7 +2670,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2681,7 +2702,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2707,7 +2728,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2802,7 +2823,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2947,8 +2968,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3018,7 +3039,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3138,7 +3159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" ht="129.6" spans="1:8">
+    <row r="7" ht="129.6" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>199</v>
       </c>
@@ -3160,40 +3181,69 @@
       <c r="G7" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" ht="115.2" spans="1:7">
+      <c r="H7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" ht="210.6" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>206</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>207</v>
+      <c r="E8" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" ht="48.6" spans="1:6">
+      <c r="G8" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" ht="210.6" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>172</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="225">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -865,6 +865,40 @@
   </si>
   <si>
     <t>The success message with a cart link is appeared, and clicking the link is navigated to the cart page.</t>
+  </si>
+  <si>
+    <t>HP-009</t>
+  </si>
+  <si>
+    <t>Verify Add to Cart Without Selecting Color Option Displays Prompt</t>
+  </si>
+  <si>
+    <t>Ensure clicking the "Add to Cart" button without selecting the color option but selecting the size navigates to the product page and displays a prompt message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+ 4.Click on the "Add to Cart" button without selecting the color option but select the size.
+5. Verify navigation to the product page.
+6.Check for the message prompting the user to choose options (e.g. color). </t>
+  </si>
+  <si>
+    <t>HP-010</t>
+  </si>
+  <si>
+    <t>Verify Add to Cart Without Selecting Size Option Displays Prompt</t>
+  </si>
+  <si>
+    <t>Ensure clicking the "Add to Cart" button without selecting the size option but selecting the color navigates to the product page and displays a prompt message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+ 4.Click on the "Add to Cart" button without selecting the size option but select the color.
+5. Verify navigation to the product page.
+6.Check for the message prompting the user to choose options (e.g. size). </t>
   </si>
 </sst>
 </file>
@@ -2966,10 +3000,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3163,10 +3197,10 @@
       <c r="A7" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -3178,10 +3212,10 @@
       <c r="F7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I7" t="s">
@@ -3192,25 +3226,25 @@
       <c r="A8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>208</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I8" t="s">
@@ -3221,28 +3255,86 @@
       <c r="A9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>214</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>216</v>
       </c>
       <c r="I9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" ht="226.8" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" ht="226.8" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="237">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -899,6 +899,51 @@
  4.Click on the "Add to Cart" button without selecting the size option but select the color.
 5. Verify navigation to the product page.
 6.Check for the message prompting the user to choose options (e.g. size). </t>
+  </si>
+  <si>
+    <t>HP-011</t>
+  </si>
+  <si>
+    <t>Verify Add to Compare Icon Visibility on Hover</t>
+  </si>
+  <si>
+    <t>Ensure that after hovering over a product image, the "Add to Compare" icon is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+4.Check if the "Add to Compare" icon appears. </t>
+  </si>
+  <si>
+    <t>"Add to Compare" icon should be visible upon hovering.</t>
+  </si>
+  <si>
+    <t>"Add to Compare" icon has visible upon hovering.</t>
+  </si>
+  <si>
+    <t>HP-012</t>
+  </si>
+  <si>
+    <t>Verify Add to Compare Icon Navigation to Comparison Page</t>
+  </si>
+  <si>
+    <t>Ensure that clicking on the "Add to Compare" icon displays a success message containing the comparison list link. Clicking on the link navigates the user to the product comparison page.</t>
+  </si>
+  <si>
+    <t>1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+ 4.Click on the "Add to Compare" icon.
+5. Verify that a success message is displayed containing the comparison list link.
+6. Click on the comparison list link in the success message.
+7. Verify that the user is navigated to the product comparison page.</t>
+  </si>
+  <si>
+    <t>The success message with a comparison list link should appear, and clicking the link should navigate to the Product Comparison page.</t>
+  </si>
+  <si>
+    <t>The success message with a comparison list link has appeared, and clicking the link is navigated to the Product Comparison page.</t>
   </si>
 </sst>
 </file>
@@ -3000,10 +3045,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3338,6 +3383,64 @@
         <v>66</v>
       </c>
     </row>
+    <row r="12" ht="129.6" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" ht="259.2" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="250">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -944,6 +944,53 @@
   </si>
   <si>
     <t>The success message with a comparison list link has appeared, and clicking the link is navigated to the Product Comparison page.</t>
+  </si>
+  <si>
+    <t>HP-013</t>
+  </si>
+  <si>
+    <t>Verify Add to Wishlist Icon Visibility on Hover</t>
+  </si>
+  <si>
+    <t>Ensure that after hovering over a product image, the "Add to WishList" icon is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+4.Check if the "Add to WishList" icon appears. </t>
+  </si>
+  <si>
+    <t>"Add to WishList" icon should be visible upon hovering.</t>
+  </si>
+  <si>
+    <t>"Add to WishList" icon has visible upon hovering.</t>
+  </si>
+  <si>
+    <t>HP-014</t>
+  </si>
+  <si>
+    <t>Verify Add to Wishlist Icon Redirects to Login Page Without Login</t>
+  </si>
+  <si>
+    <t>Ensure that clicking on the "Add to Wishlist" icon without logging in redirects the user to the login page and displays the error message.</t>
+  </si>
+  <si>
+    <t>1. Open the homepage.
+2. Scroll down to view the hot seller product images under the banner.
+3. Hover on a image in the hotseller section.
+4.Click on the "Add to Wishlist" icon.
+5. Verify that the user is redirected to the login page.
+6. Verify that the message is displayed on the login page.</t>
+  </si>
+  <si>
+    <t>Clicking the icon without logging in redirects the user to the login page.The message "You must login or register to add items to your wishlist" should be displayed.</t>
+  </si>
+  <si>
+    <t>Clicking the icon without logging in redirected the user to the login page.The message is displayed as expected.</t>
+  </si>
+  <si>
+    <t>HP-015</t>
   </si>
 </sst>
 </file>
@@ -3045,10 +3092,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3441,6 +3488,69 @@
         <v>66</v>
       </c>
     </row>
+    <row r="14" ht="129.6" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="194.4" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" ht="16.2" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -3094,8 +3094,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="251">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -991,6 +991,9 @@
   </si>
   <si>
     <t>HP-015</t>
+  </si>
+  <si>
+    <t>Verify Add to Wishlist Functionality After Login</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,6 +1673,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2290,10 +2296,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2302,7 +2308,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2319,10 +2325,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2331,7 +2337,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2351,7 +2357,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2360,7 +2366,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2380,7 +2386,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2389,7 +2395,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2415,7 +2421,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2441,7 +2447,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2467,7 +2473,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2482,8 +2488,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2541,10 +2547,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2553,7 +2559,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2570,7 +2576,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2582,7 +2588,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2599,7 +2605,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2611,7 +2617,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2640,7 +2646,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2657,7 +2663,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2666,7 +2672,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2695,7 +2701,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2715,7 +2721,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2724,7 +2730,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2750,7 +2756,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2767,10 +2773,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2779,7 +2785,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2796,7 +2802,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2828,7 +2834,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2854,7 +2860,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2949,7 +2955,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3094,8 +3100,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3165,7 +3171,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3546,10 +3552,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" ht="16.2" spans="1:1">
+    <row r="16" ht="28.8" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="B16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="256">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -994,6 +994,34 @@
   </si>
   <si>
     <t>Verify Add to Wishlist Functionality After Login</t>
+  </si>
+  <si>
+    <t>Ensure that clicking on the "Add to Wishlist" icon after logging in navigates the user to the wishlist page and displays a success message.</t>
+  </si>
+  <si>
+    <t>1. Log in to the application with valid credentials.
+2. Navigate to the home page.
+3. Hover over a product image in the Hot Sellers section.
+4. Verify the "Add to Wishlist" icon is visible.
+5. Click on the "Add to Wishlist" icon.
+6. Verify that the user is navigated to the wishlist page.
+7. Verify that a success message is displayed confirming the item was added to the wishlist.</t>
+  </si>
+  <si>
+    <t>{
+        "Email": "navjotsingh@mailinator.com",
+        "Password": "Navjot@001"
+}</t>
+  </si>
+  <si>
+    <t>1. "Add to Wishlist" icon is visible upon hovering.
+2. Clicking the icon navigates the user to the wishlist page.
+3. A success message appears confirming the item was added to the wishlist.</t>
+  </si>
+  <si>
+    <t>1. "Add to Wishlist" icon was visible upon hovering.
+2. Clicking the icon successfully navigated the user to the wishlist page.
+3. A success message, "Item added to your wishlist," was displayed.</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1673,9 +1701,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2296,10 +2321,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2308,7 +2333,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2325,10 +2350,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2337,7 +2362,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2357,7 +2382,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2366,7 +2391,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2386,7 +2411,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2395,7 +2420,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2421,7 +2446,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2447,7 +2472,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2473,7 +2498,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2489,7 +2514,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2547,10 +2572,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2559,7 +2584,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2576,7 +2601,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2588,7 +2613,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2605,7 +2630,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2617,7 +2642,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2646,7 +2671,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2663,7 +2688,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2672,7 +2697,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2701,7 +2726,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2721,7 +2746,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2730,7 +2755,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2756,7 +2781,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2773,10 +2798,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2785,7 +2810,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2802,7 +2827,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2834,7 +2859,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2860,7 +2885,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2955,7 +2980,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3100,8 +3125,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3171,7 +3196,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3552,14 +3577,34 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:3">
+    <row r="16" ht="226.8" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="262">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1022,6 +1022,31 @@
     <t>1. "Add to Wishlist" icon was visible upon hovering.
 2. Clicking the icon successfully navigated the user to the wishlist page.
 3. A success message, "Item added to your wishlist," was displayed.</t>
+  </si>
+  <si>
+    <t>HP-016</t>
+  </si>
+  <si>
+    <t>Verify Visibility and Navigation of Reviews with Star Rating under Hot Sellers Image</t>
+  </si>
+  <si>
+    <t>Ensure that reviews with star ratings are visible under each product image in the Hot Sellers section and that the reviews link navigates the user to the respective product's review section.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Verify the Hot Sellers section is visible.
+3. Scroll to a product image in the Hot Sellers section.
+4. Verify the star ratings and reviews are visible below the product image.
+5. Click on the reviews link.
+6. Verify that the user is navigated to the respective product's review section.</t>
+  </si>
+  <si>
+    <t>1. Star ratings and reviews are visible under the product image.
+2. Clicking the reviews link navigates the user to the product's review section</t>
+  </si>
+  <si>
+    <t>1. Star ratings and reviews were visible under the product image.
+2. Clicking the reviews link navigated the user to the product's review section</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1701,6 +1726,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2321,10 +2349,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2333,7 +2361,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2350,10 +2378,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2362,7 +2390,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2382,7 +2410,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2391,7 +2419,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2411,7 +2439,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2420,7 +2448,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2446,7 +2474,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2472,7 +2500,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2498,7 +2526,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2572,10 +2600,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2584,7 +2612,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2601,7 +2629,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2613,7 +2641,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2630,7 +2658,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2642,7 +2670,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2671,7 +2699,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2688,7 +2716,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2697,7 +2725,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2726,7 +2754,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2746,7 +2774,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2755,7 +2783,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2781,7 +2809,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2798,10 +2826,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2810,7 +2838,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2827,7 +2855,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2859,7 +2887,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2885,7 +2913,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2980,7 +3008,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3123,10 +3151,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3196,7 +3224,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3604,6 +3632,32 @@
       </c>
       <c r="I16" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="17" ht="129.6" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="262">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1046,7 +1046,7 @@
   </si>
   <si>
     <t>1. Star ratings and reviews were visible under the product image.
-2. Clicking the reviews link navigated the user to the product's review section</t>
+2. Clicking the reviews link successfully navigated the user to the product's review section</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1726,9 +1726,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2349,10 +2346,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2361,7 +2358,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2378,10 +2375,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2390,7 +2387,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2410,7 +2407,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2419,7 +2416,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2439,7 +2436,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2448,7 +2445,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2474,7 +2471,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2500,7 +2497,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2526,7 +2523,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2600,10 +2597,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2612,7 +2609,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2629,7 +2626,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2641,7 +2638,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2658,7 +2655,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2670,7 +2667,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2699,7 +2696,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2716,7 +2713,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2725,7 +2722,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2754,7 +2751,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2774,7 +2771,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2783,7 +2780,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2809,7 +2806,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2826,10 +2823,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2838,7 +2835,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2855,7 +2852,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2887,7 +2884,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2913,7 +2910,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -3008,7 +3005,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3153,8 +3150,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3224,7 +3221,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3634,30 +3631,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" ht="129.6" spans="1:8">
+    <row r="17" ht="194.4" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>258</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>259</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>261</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -3151,7 +3151,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="262">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1046,7 +1046,7 @@
   </si>
   <si>
     <t>1. Star ratings and reviews were visible under the product image.
-2. Clicking the reviews link navigated the user to the product's review section</t>
+2. Clicking the reviews link successfully navigated the user to the product's review section</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1726,9 +1726,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2349,10 +2346,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2361,7 +2358,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2378,10 +2375,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2390,7 +2387,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2410,7 +2407,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2419,7 +2416,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2439,7 +2436,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2448,7 +2445,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2474,7 +2471,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2500,7 +2497,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2526,7 +2523,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2600,10 +2597,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2612,7 +2609,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2629,7 +2626,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2641,7 +2638,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2658,7 +2655,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2670,7 +2667,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2699,7 +2696,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2716,7 +2713,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2725,7 +2722,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2754,7 +2751,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2774,7 +2771,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2783,7 +2780,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2809,7 +2806,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2826,10 +2823,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2838,7 +2835,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2855,7 +2852,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2887,7 +2884,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2913,7 +2910,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -3008,7 +3005,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3153,8 +3150,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3224,7 +3221,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3634,30 +3631,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" ht="129.6" spans="1:8">
+    <row r="17" ht="194.4" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>258</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>259</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>261</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10440" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="10440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp_Tests" sheetId="1" r:id="rId1"/>
     <sheet name="SignIn_Tests" sheetId="2" r:id="rId2"/>
     <sheet name="ForgotPassword_Tests" sheetId="3" r:id="rId3"/>
     <sheet name="HomePage_Tests " sheetId="4" r:id="rId4"/>
+    <sheet name="ShoppingCart_Tests" sheetId="5" r:id="rId5"/>
+    <sheet name="ProductPage_Tests" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="272">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1047,6 +1049,42 @@
   <si>
     <t>1. Star ratings and reviews were visible under the product image.
 2. Clicking the reviews link successfully navigated the user to the product's review section</t>
+  </si>
+  <si>
+    <t>SC-001</t>
+  </si>
+  <si>
+    <t>Verify that the user can navigate to the product page, select product options, add the product to the cart, and see a success message.</t>
+  </si>
+  <si>
+    <t>PP-001</t>
+  </si>
+  <si>
+    <t>Verify "Add to Cart" Button and Product Options on Product Page</t>
+  </si>
+  <si>
+    <t>To ensure that upon navigating from the home page to the product page, the "Add to Cart" button is visible and functional, along with any required product options (e.g., size, color) on the product page.</t>
+  </si>
+  <si>
+    <t>1. Open the home page.
+2. Locate and click on a product image.
+3. Verify the product page is displayed.
+4. Check if the "Add to Cart" button is visible along with options (e.g., size, color).</t>
+  </si>
+  <si>
+    <t>The product page should load with the correct product details and display a visible "Add to Cart" button with options.</t>
+  </si>
+  <si>
+    <t>Verify the visibility and functionality of the quantity field on the product page</t>
+  </si>
+  <si>
+    <t>To ensure that the quantity field is visible, functional, and allows users to input the desired quantity on the product page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the home page.
+2. Locate and click on a product image.
+3. Locate the quantity field on product page.
+</t>
   </si>
 </sst>
 </file>
@@ -1075,13 +1113,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF091E42"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF091E42"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -1716,34 +1754,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2334,16 +2372,16 @@
       </c>
     </row>
     <row r="2" ht="162" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2352,10 +2390,10 @@
       <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="14" t="s">
@@ -2363,16 +2401,16 @@
       </c>
     </row>
     <row r="3" ht="129.6" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -2381,10 +2419,10 @@
       <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -2392,28 +2430,28 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="14" t="s">
@@ -2421,28 +2459,28 @@
       </c>
     </row>
     <row r="5" ht="129.6" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="14" t="s">
@@ -2450,25 +2488,25 @@
       </c>
     </row>
     <row r="6" ht="81" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -2476,25 +2514,25 @@
       </c>
     </row>
     <row r="7" ht="145.8" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -2502,25 +2540,25 @@
       </c>
     </row>
     <row r="8" ht="194.4" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -2585,16 +2623,16 @@
       </c>
     </row>
     <row r="2" ht="113.4" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2603,10 +2641,10 @@
       <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -2614,28 +2652,28 @@
       </c>
     </row>
     <row r="3" ht="81" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -2643,28 +2681,28 @@
       </c>
     </row>
     <row r="4" ht="81" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -2672,28 +2710,28 @@
       </c>
     </row>
     <row r="5" ht="113.4" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -2701,25 +2739,25 @@
       </c>
     </row>
     <row r="6" ht="97.2" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>90</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -2727,28 +2765,28 @@
       </c>
     </row>
     <row r="7" ht="194.4" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2756,28 +2794,28 @@
       </c>
     </row>
     <row r="8" ht="129.6" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -2785,25 +2823,25 @@
       </c>
     </row>
     <row r="9" ht="178.2" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -2811,16 +2849,16 @@
       </c>
     </row>
     <row r="10" ht="113.4" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -2829,10 +2867,10 @@
       <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -2840,28 +2878,28 @@
       </c>
     </row>
     <row r="11" ht="97.2" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -2869,28 +2907,28 @@
       </c>
     </row>
     <row r="12" ht="162" spans="1:9">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -2898,28 +2936,28 @@
       </c>
     </row>
     <row r="13" ht="113.4" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>133</v>
       </c>
       <c r="I13" t="s">
@@ -2990,28 +3028,28 @@
       </c>
     </row>
     <row r="2" ht="64.8" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>139</v>
       </c>
       <c r="I2" t="s">
@@ -3019,28 +3057,28 @@
       </c>
     </row>
     <row r="3" ht="129.6" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>146</v>
       </c>
       <c r="I3" t="s">
@@ -3048,28 +3086,28 @@
       </c>
     </row>
     <row r="4" ht="97.2" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>153</v>
       </c>
       <c r="I4" t="s">
@@ -3077,28 +3115,28 @@
       </c>
     </row>
     <row r="5" ht="113.4" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>160</v>
       </c>
       <c r="I5" t="s">
@@ -3106,28 +3144,28 @@
       </c>
     </row>
     <row r="6" ht="113.4" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>167</v>
       </c>
       <c r="I6" t="s">
@@ -3150,8 +3188,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3197,28 +3235,28 @@
       </c>
     </row>
     <row r="2" ht="145.8" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -3226,28 +3264,28 @@
       </c>
     </row>
     <row r="3" ht="113.4" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>180</v>
       </c>
       <c r="I3" t="s">
@@ -3255,28 +3293,28 @@
       </c>
     </row>
     <row r="4" ht="97.2" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="I4" t="s">
@@ -3284,28 +3322,28 @@
       </c>
     </row>
     <row r="5" ht="97.2" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>192</v>
       </c>
       <c r="I5" t="s">
@@ -3313,28 +3351,28 @@
       </c>
     </row>
     <row r="6" ht="129.6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>198</v>
       </c>
       <c r="I6" t="s">
@@ -3342,28 +3380,28 @@
       </c>
     </row>
     <row r="7" ht="129.6" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>204</v>
       </c>
       <c r="I7" t="s">
@@ -3371,28 +3409,28 @@
       </c>
     </row>
     <row r="8" ht="210.6" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I8" t="s">
@@ -3400,28 +3438,28 @@
       </c>
     </row>
     <row r="9" ht="210.6" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>216</v>
       </c>
       <c r="I9" t="s">
@@ -3429,7 +3467,7 @@
       </c>
     </row>
     <row r="10" ht="226.8" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3438,19 +3476,19 @@
       <c r="C10" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I10" t="s">
@@ -3458,7 +3496,7 @@
       </c>
     </row>
     <row r="11" ht="226.8" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3467,19 +3505,19 @@
       <c r="C11" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>210</v>
       </c>
       <c r="I11" t="s">
@@ -3487,7 +3525,7 @@
       </c>
     </row>
     <row r="12" ht="129.6" spans="1:9">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3496,13 +3534,13 @@
       <c r="C12" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -3516,7 +3554,7 @@
       </c>
     </row>
     <row r="13" ht="259.2" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3525,19 +3563,19 @@
       <c r="C13" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>236</v>
       </c>
       <c r="I13" t="s">
@@ -3545,7 +3583,7 @@
       </c>
     </row>
     <row r="14" ht="129.6" spans="1:9">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3554,13 +3592,13 @@
       <c r="C14" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -3574,7 +3612,7 @@
       </c>
     </row>
     <row r="15" ht="194.4" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3583,13 +3621,13 @@
       <c r="C15" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -3603,7 +3641,7 @@
       </c>
     </row>
     <row r="16" ht="226.8" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3612,7 +3650,7 @@
       <c r="C16" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -3632,7 +3670,7 @@
       </c>
     </row>
     <row r="17" ht="194.4" spans="1:9">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3641,13 +3679,13 @@
       <c r="C17" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -3669,4 +3707,168 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="39.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="35.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="31.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="27.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="26.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="31.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="27.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="20.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:2">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"Passed,Failed,In Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="50.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="52.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="38.4444444444444" customWidth="1"/>
+    <col min="7" max="9" width="36.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:7">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"Passed,Failed,In Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="274">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1075,6 +1075,9 @@
     <t>The product page should load with the correct product details and display a visible "Add to Cart" button with options.</t>
   </si>
   <si>
+    <t>PP-002</t>
+  </si>
+  <si>
     <t>Verify the visibility and functionality of the quantity field on the product page</t>
   </si>
   <si>
@@ -1084,7 +1087,11 @@
     <t xml:space="preserve">1. Open the home page.
 2. Locate and click on a product image.
 3. Locate the quantity field on product page.
+4. Verify it is visible and input type.
 </t>
+  </si>
+  <si>
+    <t>The quantity field should be visible, input-enabled, and functional. Users should be able to adjust the quantity.</t>
   </si>
 </sst>
 </file>
@@ -1113,13 +1120,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF091E42"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF091E42"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -1744,7 +1751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1752,6 +1759,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1760,28 +1779,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2372,196 +2385,196 @@
       </c>
     </row>
     <row r="2" ht="162" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="129.6" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="129.6" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="145.8" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="194.4" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2623,283 +2636,283 @@
       </c>
     </row>
     <row r="2" ht="113.4" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" ht="113.4" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" ht="97.2" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" ht="194.4" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="129.6" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" ht="178.2" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" ht="113.4" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" ht="97.2" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -2907,28 +2920,28 @@
       </c>
     </row>
     <row r="12" ht="162" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -2936,28 +2949,28 @@
       </c>
     </row>
     <row r="13" ht="113.4" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>133</v>
       </c>
       <c r="I13" t="s">
@@ -3028,28 +3041,28 @@
       </c>
     </row>
     <row r="2" ht="64.8" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>139</v>
       </c>
       <c r="I2" t="s">
@@ -3057,28 +3070,28 @@
       </c>
     </row>
     <row r="3" ht="129.6" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>146</v>
       </c>
       <c r="I3" t="s">
@@ -3086,28 +3099,28 @@
       </c>
     </row>
     <row r="4" ht="97.2" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I4" t="s">
@@ -3115,28 +3128,28 @@
       </c>
     </row>
     <row r="5" ht="113.4" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>160</v>
       </c>
       <c r="I5" t="s">
@@ -3144,28 +3157,28 @@
       </c>
     </row>
     <row r="6" ht="113.4" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I6" t="s">
@@ -3188,8 +3201,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3235,57 +3248,57 @@
       </c>
     </row>
     <row r="2" ht="145.8" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="113.4" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>180</v>
       </c>
       <c r="I3" t="s">
@@ -3293,28 +3306,28 @@
       </c>
     </row>
     <row r="4" ht="97.2" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I4" t="s">
@@ -3322,28 +3335,28 @@
       </c>
     </row>
     <row r="5" ht="97.2" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>192</v>
       </c>
       <c r="I5" t="s">
@@ -3351,28 +3364,28 @@
       </c>
     </row>
     <row r="6" ht="129.6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>198</v>
       </c>
       <c r="I6" t="s">
@@ -3380,28 +3393,28 @@
       </c>
     </row>
     <row r="7" ht="129.6" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>204</v>
       </c>
       <c r="I7" t="s">
@@ -3409,28 +3422,28 @@
       </c>
     </row>
     <row r="8" ht="210.6" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>210</v>
       </c>
       <c r="I8" t="s">
@@ -3438,28 +3451,28 @@
       </c>
     </row>
     <row r="9" ht="210.6" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>216</v>
       </c>
       <c r="I9" t="s">
@@ -3467,28 +3480,28 @@
       </c>
     </row>
     <row r="10" ht="226.8" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>210</v>
       </c>
       <c r="I10" t="s">
@@ -3496,28 +3509,28 @@
       </c>
     </row>
     <row r="11" ht="226.8" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>210</v>
       </c>
       <c r="I11" t="s">
@@ -3525,28 +3538,28 @@
       </c>
     </row>
     <row r="12" ht="129.6" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>230</v>
       </c>
       <c r="I12" t="s">
@@ -3554,28 +3567,28 @@
       </c>
     </row>
     <row r="13" ht="259.2" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>236</v>
       </c>
       <c r="I13" t="s">
@@ -3583,28 +3596,28 @@
       </c>
     </row>
     <row r="14" ht="129.6" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>242</v>
       </c>
       <c r="I14" t="s">
@@ -3612,28 +3625,28 @@
       </c>
     </row>
     <row r="15" ht="194.4" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="8" t="s">
         <v>248</v>
       </c>
       <c r="I15" t="s">
@@ -3641,28 +3654,28 @@
       </c>
     </row>
     <row r="16" ht="226.8" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="8" t="s">
         <v>255</v>
       </c>
       <c r="I16" t="s">
@@ -3670,28 +3683,28 @@
       </c>
     </row>
     <row r="17" ht="194.4" spans="1:9">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="8" t="s">
         <v>261</v>
       </c>
       <c r="I17" t="s">
@@ -3764,7 +3777,7 @@
       <c r="A2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3785,7 +3798,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C15" sqref="G7 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3828,39 +3841,53 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="72" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" ht="81" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="3" ht="57.6" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" ht="81" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="E3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -3798,7 +3798,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="G7 C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="294">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1075,6 +1075,9 @@
     <t>The product page should load with the correct product details and display a visible "Add to Cart" button with options.</t>
   </si>
   <si>
+    <t>PP-002</t>
+  </si>
+  <si>
     <t>Verify the visibility and functionality of the quantity field on the product page</t>
   </si>
   <si>
@@ -1085,6 +1088,85 @@
 2. Locate and click on a product image.
 3. Locate the quantity field on product page.
 </t>
+  </si>
+  <si>
+    <t>The quantity field should be visible, input-enabled, and functional. Users should be able to adjust the quantity.</t>
+  </si>
+  <si>
+    <t>PP-003</t>
+  </si>
+  <si>
+    <t>Verify Successful Addition of Product to Cart on Product Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ensure that a product is successfully added to the cart when required options are selected.
+</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Select valid options for size and color.
+4. Click on the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>A confirmation message, "Product successfully added to the cart," is displayed on the page.</t>
+  </si>
+  <si>
+    <t>PP-004</t>
+  </si>
+  <si>
+    <t>Verify Error Message When Size Option is Not Selected</t>
+  </si>
+  <si>
+    <t>To ensure that the system displays an error message if the user tries to add a product to the cart by selecting only the color option without selecting the size.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Select a valid color option.
+4. Do not select the size option.
+5. Click on the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>An error message, "This is a required field." is displayed below the size selection field.</t>
+  </si>
+  <si>
+    <t>PP-005</t>
+  </si>
+  <si>
+    <t>Verify Error Message When Color Option is Not Selected</t>
+  </si>
+  <si>
+    <t>To ensure that the system displays an error message if the user tries to add a product to the cart by selecting only the size option without selecting the color.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Select a valid size option.
+4. Do not select the color option.
+5. Click on the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>An error message, "This is a required field." is displayed below the color selection field.</t>
+  </si>
+  <si>
+    <t>PP-006</t>
+  </si>
+  <si>
+    <t>Verify Error Message When both Color and Size options are not selected</t>
+  </si>
+  <si>
+    <t>To ensure that the system displays an error message if the user tries to add a product to the cart by not selecting any option.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Do not select the size option.
+4. Do not select the color option.
+5. Click on the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>An error message, "This is a required field." is displayed below the color and size selection fields.</t>
   </si>
 </sst>
 </file>
@@ -1113,13 +1195,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF091E42"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF091E42"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -1744,7 +1826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1753,35 +1835,41 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2372,196 +2460,196 @@
       </c>
     </row>
     <row r="2" ht="162" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="129.6" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="129.6" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="145.8" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="194.4" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2623,283 +2711,283 @@
       </c>
     </row>
     <row r="2" ht="113.4" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" ht="113.4" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" ht="97.2" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" ht="194.4" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="129.6" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" ht="178.2" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" ht="113.4" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" ht="97.2" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -2907,28 +2995,28 @@
       </c>
     </row>
     <row r="12" ht="162" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -2936,28 +3024,28 @@
       </c>
     </row>
     <row r="13" ht="113.4" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>133</v>
       </c>
       <c r="I13" t="s">
@@ -3028,28 +3116,28 @@
       </c>
     </row>
     <row r="2" ht="64.8" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I2" t="s">
@@ -3057,28 +3145,28 @@
       </c>
     </row>
     <row r="3" ht="129.6" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>146</v>
       </c>
       <c r="I3" t="s">
@@ -3086,28 +3174,28 @@
       </c>
     </row>
     <row r="4" ht="97.2" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>153</v>
       </c>
       <c r="I4" t="s">
@@ -3115,28 +3203,28 @@
       </c>
     </row>
     <row r="5" ht="113.4" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>160</v>
       </c>
       <c r="I5" t="s">
@@ -3144,28 +3232,28 @@
       </c>
     </row>
     <row r="6" ht="113.4" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>167</v>
       </c>
       <c r="I6" t="s">
@@ -3188,8 +3276,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3235,57 +3323,57 @@
       </c>
     </row>
     <row r="2" ht="145.8" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" ht="113.4" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>180</v>
       </c>
       <c r="I3" t="s">
@@ -3293,28 +3381,28 @@
       </c>
     </row>
     <row r="4" ht="97.2" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>186</v>
       </c>
       <c r="I4" t="s">
@@ -3322,28 +3410,28 @@
       </c>
     </row>
     <row r="5" ht="97.2" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I5" t="s">
@@ -3351,28 +3439,28 @@
       </c>
     </row>
     <row r="6" ht="129.6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>198</v>
       </c>
       <c r="I6" t="s">
@@ -3380,28 +3468,28 @@
       </c>
     </row>
     <row r="7" ht="129.6" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I7" t="s">
@@ -3409,28 +3497,28 @@
       </c>
     </row>
     <row r="8" ht="210.6" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I8" t="s">
@@ -3438,28 +3526,28 @@
       </c>
     </row>
     <row r="9" ht="210.6" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>216</v>
       </c>
       <c r="I9" t="s">
@@ -3467,28 +3555,28 @@
       </c>
     </row>
     <row r="10" ht="226.8" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I10" t="s">
@@ -3496,28 +3584,28 @@
       </c>
     </row>
     <row r="11" ht="226.8" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I11" t="s">
@@ -3525,28 +3613,28 @@
       </c>
     </row>
     <row r="12" ht="129.6" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>230</v>
       </c>
       <c r="I12" t="s">
@@ -3554,28 +3642,28 @@
       </c>
     </row>
     <row r="13" ht="259.2" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>236</v>
       </c>
       <c r="I13" t="s">
@@ -3583,28 +3671,28 @@
       </c>
     </row>
     <row r="14" ht="129.6" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>242</v>
       </c>
       <c r="I14" t="s">
@@ -3612,28 +3700,28 @@
       </c>
     </row>
     <row r="15" ht="194.4" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>248</v>
       </c>
       <c r="I15" t="s">
@@ -3641,28 +3729,28 @@
       </c>
     </row>
     <row r="16" ht="226.8" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>255</v>
       </c>
       <c r="I16" t="s">
@@ -3670,28 +3758,28 @@
       </c>
     </row>
     <row r="17" ht="194.4" spans="1:9">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I17" t="s">
@@ -3764,7 +3852,7 @@
       <c r="A2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3782,13 +3870,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -3828,39 +3916,137 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="72" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" ht="81" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="3" ht="57.6" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" ht="64.8" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>271</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" ht="81" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" ht="97.2" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" ht="97.2" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" ht="97.2" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="294">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1087,11 +1087,86 @@
     <t xml:space="preserve">1. Open the home page.
 2. Locate and click on a product image.
 3. Locate the quantity field on product page.
-4. Verify it is visible and input type.
 </t>
   </si>
   <si>
     <t>The quantity field should be visible, input-enabled, and functional. Users should be able to adjust the quantity.</t>
+  </si>
+  <si>
+    <t>PP-003</t>
+  </si>
+  <si>
+    <t>Verify Successful Addition of Product to Cart on Product Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ensure that a product is successfully added to the cart when required options are selected.
+</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Select valid options for size and color.
+4. Click on the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>A confirmation message, "Product successfully added to the cart," is displayed on the page.</t>
+  </si>
+  <si>
+    <t>PP-004</t>
+  </si>
+  <si>
+    <t>Verify Error Message When Size Option is Not Selected</t>
+  </si>
+  <si>
+    <t>To ensure that the system displays an error message if the user tries to add a product to the cart by selecting only the color option without selecting the size.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Select a valid color option.
+4. Do not select the size option.
+5. Click on the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>An error message, "This is a required field." is displayed below the size selection field.</t>
+  </si>
+  <si>
+    <t>PP-005</t>
+  </si>
+  <si>
+    <t>Verify Error Message When Color Option is Not Selected</t>
+  </si>
+  <si>
+    <t>To ensure that the system displays an error message if the user tries to add a product to the cart by selecting only the size option without selecting the color.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Select a valid size option.
+4. Do not select the color option.
+5. Click on the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>An error message, "This is a required field." is displayed below the color selection field.</t>
+  </si>
+  <si>
+    <t>PP-006</t>
+  </si>
+  <si>
+    <t>Verify Error Message When both Color and Size options are not selected</t>
+  </si>
+  <si>
+    <t>To ensure that the system displays an error message if the user tries to add a product to the cart by not selecting any option.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Do not select the size option.
+4. Do not select the color option.
+5. Click on the "Add to Cart" button.</t>
+  </si>
+  <si>
+    <t>An error message, "This is a required field." is displayed below the color and size selection fields.</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1848,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2388,7 +2463,7 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2406,7 +2481,7 @@
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="16" t="s">
@@ -2417,7 +2492,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2435,7 +2510,7 @@
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="16" t="s">
@@ -2446,25 +2521,25 @@
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="16" t="s">
@@ -2475,25 +2550,25 @@
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="16" t="s">
@@ -2504,22 +2579,22 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="16" t="s">
@@ -2530,22 +2605,22 @@
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -2556,22 +2631,22 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="16" t="s">
@@ -2639,7 +2714,7 @@
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2657,7 +2732,7 @@
       <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -2668,7 +2743,7 @@
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2680,7 +2755,7 @@
       <c r="E3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2697,7 +2772,7 @@
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2709,7 +2784,7 @@
       <c r="E4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2726,25 +2801,25 @@
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="14" t="s">
@@ -2755,7 +2830,7 @@
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2767,7 +2842,7 @@
       <c r="E6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2781,25 +2856,25 @@
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -2810,25 +2885,25 @@
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -2839,22 +2914,22 @@
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="14" t="s">
@@ -2865,10 +2940,10 @@
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2883,7 +2958,7 @@
       <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="15" t="s">
@@ -2894,10 +2969,10 @@
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2906,10 +2981,10 @@
       <c r="E11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2923,25 +2998,25 @@
       <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I12" t="s">
@@ -2955,7 +3030,7 @@
       <c r="B13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2964,13 +3039,13 @@
       <c r="E13" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="4" t="s">
         <v>133</v>
       </c>
       <c r="I13" t="s">
@@ -3044,25 +3119,25 @@
       <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I2" t="s">
@@ -3073,25 +3148,25 @@
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>146</v>
       </c>
       <c r="I3" t="s">
@@ -3102,25 +3177,25 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>153</v>
       </c>
       <c r="I4" t="s">
@@ -3131,25 +3206,25 @@
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>160</v>
       </c>
       <c r="I5" t="s">
@@ -3160,25 +3235,25 @@
       <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>167</v>
       </c>
       <c r="I6" t="s">
@@ -3201,8 +3276,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3251,25 +3326,25 @@
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -3280,25 +3355,25 @@
       <c r="A3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>180</v>
       </c>
       <c r="I3" t="s">
@@ -3309,25 +3384,25 @@
       <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>186</v>
       </c>
       <c r="I4" t="s">
@@ -3338,25 +3413,25 @@
       <c r="A5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>192</v>
       </c>
       <c r="I5" t="s">
@@ -3367,25 +3442,25 @@
       <c r="A6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>198</v>
       </c>
       <c r="I6" t="s">
@@ -3396,25 +3471,25 @@
       <c r="A7" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>202</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I7" t="s">
@@ -3425,25 +3500,25 @@
       <c r="A8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>208</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I8" t="s">
@@ -3454,25 +3529,25 @@
       <c r="A9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>214</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>216</v>
       </c>
       <c r="I9" t="s">
@@ -3483,25 +3558,25 @@
       <c r="A10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>220</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I10" t="s">
@@ -3512,25 +3587,25 @@
       <c r="A11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>224</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I11" t="s">
@@ -3541,25 +3616,25 @@
       <c r="A12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>228</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="4" t="s">
         <v>230</v>
       </c>
       <c r="I12" t="s">
@@ -3570,25 +3645,25 @@
       <c r="A13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>234</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="4" t="s">
         <v>236</v>
       </c>
       <c r="I13" t="s">
@@ -3599,25 +3674,25 @@
       <c r="A14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4" t="s">
         <v>240</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="4" t="s">
         <v>242</v>
       </c>
       <c r="I14" t="s">
@@ -3628,25 +3703,25 @@
       <c r="A15" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>246</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="4" t="s">
         <v>248</v>
       </c>
       <c r="I15" t="s">
@@ -3657,25 +3732,25 @@
       <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>251</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="4" t="s">
         <v>255</v>
       </c>
       <c r="I16" t="s">
@@ -3686,25 +3761,25 @@
       <c r="A17" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I17" t="s">
@@ -3777,7 +3852,7 @@
       <c r="A2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3795,13 +3870,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -3857,15 +3932,13 @@
       <c r="E2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
         <v>268</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="81" spans="1:8">
+    <row r="3" ht="64.8" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>269</v>
       </c>
@@ -3881,13 +3954,99 @@
       <c r="E3" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>273</v>
       </c>
       <c r="H3" s="6"/>
+    </row>
+    <row r="4" ht="81" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" ht="97.2" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" ht="97.2" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" ht="97.2" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="315">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1167,6 +1167,82 @@
   </si>
   <si>
     <t>An error message, "This is a required field." is displayed below the color and size selection fields.</t>
+  </si>
+  <si>
+    <t>PP-007</t>
+  </si>
+  <si>
+    <t>Verify Add to Compare Icon Visibility in product details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that "Add to Compare" icon is displayed in the product details on the Product page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+3. Locate "Add To Compare" icon
+</t>
+  </si>
+  <si>
+    <t>"Add to Compare" icon should be visible on product page.</t>
+  </si>
+  <si>
+    <t>PP-008</t>
+  </si>
+  <si>
+    <t>Verify "Add to Compare" functionality on product page</t>
+  </si>
+  <si>
+    <t>To ensure that clicking on the "Add to Compare" icon on the product page displays a success message.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+ 3.Click on the "Add to Compare" icon.
+4. Check for the success message.</t>
+  </si>
+  <si>
+    <t>After clicking the "Add to Compare" icon, a success message should appear confirming the product is added to compare.</t>
+  </si>
+  <si>
+    <t>PP-009</t>
+  </si>
+  <si>
+    <t>Verify "Add to Wishlist" functionality without login</t>
+  </si>
+  <si>
+    <t>To verify that clicking on the "Add to Wishlist" icon on the product page navigates the user to the sign-in page and displays an appropriate error message when the user is not logged in.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Click on the product image to open the product details page.
+ 3.Click on the "Add to WishList" icon.
+4. Check if the user is redirected to the sign-in page.
+5. Verify the error message "You must login or register to add items to your wishlist." appears.</t>
+  </si>
+  <si>
+    <t>User should be redirected to the sign-in page and see the appropriate error message.</t>
+  </si>
+  <si>
+    <t>PP-010</t>
+  </si>
+  <si>
+    <t>Verify "Add to Wishlist" functionality with login</t>
+  </si>
+  <si>
+    <t>To verify that after logging into the application, clicking the "Add to Wishlist" icon on the product page successfully adds the item to the wishlist and displays a success message.</t>
+  </si>
+  <si>
+    <t>1. Log in to the application with valid credentials.
+2. Navigate to the home page.
+3. Click on the product image to open the product details page.
+4. Verify the success message.</t>
+  </si>
+  <si>
+    <t>Item should be successfully added to the wishlist and a success message should appear.</t>
+  </si>
+  <si>
+    <t>PP-011</t>
   </si>
 </sst>
 </file>
@@ -3276,8 +3352,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3870,13 +3946,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -4048,6 +4124,97 @@
       </c>
       <c r="H7" s="6"/>
     </row>
+    <row r="8" ht="81" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" ht="81" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" ht="145.8" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="97.2" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="16.2" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="315">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1902,7 +1902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,12 +1919,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2548,10 +2542,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2560,7 +2554,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2577,10 +2571,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2589,7 +2583,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2609,7 +2603,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2618,7 +2612,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2638,7 +2632,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2647,7 +2641,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2673,7 +2667,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2699,7 +2693,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2725,7 +2719,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2799,10 +2793,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2811,7 +2805,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2828,7 +2822,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2840,7 +2834,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2857,7 +2851,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2869,7 +2863,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2898,7 +2892,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2915,7 +2909,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2924,7 +2918,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2953,7 +2947,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2973,7 +2967,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2982,7 +2976,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3008,7 +3002,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3025,10 +3019,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -3037,7 +3031,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3054,7 +3048,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3086,7 +3080,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -3112,7 +3106,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -3207,7 +3201,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3353,7 +3347,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3423,7 +3417,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3928,7 +3922,7 @@
       <c r="A2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3949,7 +3943,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4008,11 +4002,11 @@
       <c r="E2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" ht="64.8" spans="1:8">
       <c r="A3" s="3" t="s">
@@ -4030,99 +4024,99 @@
       <c r="E3" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" ht="81" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" ht="97.2" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" ht="97.2" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="97.2" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" ht="81" spans="1:7">
       <c r="A8" s="3" t="s">
@@ -4137,7 +4131,7 @@
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -4148,67 +4142,69 @@
       <c r="A9" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" ht="145.8" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" ht="97.2" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>311</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" ht="16.2" spans="1:1">
       <c r="A12" s="3" t="s">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="330">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1243,6 +1243,62 @@
   </si>
   <si>
     <t>PP-011</t>
+  </si>
+  <si>
+    <t>Verify Product Description In DetailsTab</t>
+  </si>
+  <si>
+    <t>Ensure the "Details" tab on the product page displays a paragraph or description about the product.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the application home page.
+2. Click on a product image to navigate to the product page.
+3. Click on the "Details" tab.
+4. Verify that the product description is displayed as a paragraph.</t>
+  </si>
+  <si>
+    <t>The details tab should display a paragraph or description about the product.</t>
+  </si>
+  <si>
+    <t>PP-012</t>
+  </si>
+  <si>
+    <t>Verify Product Features In More Info Tab</t>
+  </si>
+  <si>
+    <t>Ensure the "More Information" tab on the product page displays product features such as style, material, pattern, and climate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the application home page.
+2. Click on a product image to navigate to the product page.
+3. Click on the "More Information" tab.
+4. Verify that the tab contains product features such as style, material, pattern, and climate.
+</t>
+  </si>
+  <si>
+    <t>The "More Information" tab should display product features in an organized format (e.g., list or table)</t>
+  </si>
+  <si>
+    <t>PP-013</t>
+  </si>
+  <si>
+    <t>Verify Product Reviews And Submission Form</t>
+  </si>
+  <si>
+    <t>Ensure the "Reviews" tab on the product page displays reviews about the product and a form to submit a new review.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the application home page.
+2. Click on a product image to navigate to the product page.
+3. Click on the "Reviews" tab.
+4. Verify that reviews about the product are displayed.
+5. Verify that a form to submit a new review is present.</t>
+  </si>
+  <si>
+    <t>The "Reviews" tab should display existing reviews about the product. Additionally, a form for submitting a new review should be present and functional.</t>
+  </si>
+  <si>
+    <t>PP-014</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1920,6 +1976,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2542,10 +2604,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2554,7 +2616,7 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2571,10 +2633,10 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2583,7 +2645,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2603,7 +2665,7 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2612,7 +2674,7 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2632,7 +2694,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2641,7 +2703,7 @@
       <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2667,7 +2729,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2693,7 +2755,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2719,7 +2781,7 @@
       <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2793,10 +2855,10 @@
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2805,7 +2867,7 @@
       <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2822,7 +2884,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2834,7 +2896,7 @@
       <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2851,7 +2913,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2863,7 +2925,7 @@
       <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2892,7 +2954,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2909,7 +2971,7 @@
       <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2918,7 +2980,7 @@
       <c r="G6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2947,7 +3009,7 @@
       <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2967,7 +3029,7 @@
       <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2976,7 +3038,7 @@
       <c r="H8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3002,7 +3064,7 @@
       <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3019,10 +3081,10 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -3031,7 +3093,7 @@
       <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3048,7 +3110,7 @@
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3080,7 +3142,7 @@
       <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -3106,7 +3168,7 @@
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -3201,7 +3263,7 @@
       <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3417,7 +3479,7 @@
       <c r="H2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3922,7 +3984,7 @@
       <c r="A2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3940,10 +4002,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4206,9 +4268,75 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" ht="16.2" spans="1:1">
+    <row r="12" ht="97.2" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>314</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="145.8" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" ht="129.6" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="16.2" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4005,7 +4005,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4005,7 +4005,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4005,7 +4005,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="341">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -1299,6 +1299,55 @@
   </si>
   <si>
     <t>PP-014</t>
+  </si>
+  <si>
+    <t>Verify that a user can successfully submit a product review from the product details page</t>
+  </si>
+  <si>
+    <t>To verify user can successfully submit a product review and get confirmation message</t>
+  </si>
+  <si>
+    <t>1. Navigate to the application home page.
+2. Click on a product image to navigate to the product page.
+3. Click on the "Reviews" tab.
+4.Select rating
+5. Enter nickname, summary and review
+6. Submit review</t>
+  </si>
+  <si>
+    <t>{
+        "Nickname":"TestUser123",
+         "Summary:"Great Product",
+         "Review":"Excellent quality product, highly recommend"
+}</t>
+  </si>
+  <si>
+    <t>Success message should display after submission</t>
+  </si>
+  <si>
+    <t>PP-015</t>
+  </si>
+  <si>
+    <t>Review Form Required Fields Validation</t>
+  </si>
+  <si>
+    <t>To verify error messages display when submitting review form without required fields</t>
+  </si>
+  <si>
+    <t>1. Navigate to the application home page.
+2. Click on a product image to navigate to the product page.
+3. Click on the "Reviews" tab.
+4. Leave all fields empty
+5. Click Submit button</t>
+  </si>
+  <si>
+    <t>All fields left blank</t>
+  </si>
+  <si>
+    <t>Error messages should display for:
+ Rating: "Please select a rating"
+Nickname: "This is a required field" Summary: "This is a required field"
+Review: "This is a required field</t>
   </si>
 </sst>
 </file>
@@ -4002,10 +4051,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4272,72 +4321,115 @@
       <c r="A12" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" ht="145.8" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>321</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" ht="129.6" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" ht="16.2" spans="1:1">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" ht="129.6" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>329</v>
       </c>
+      <c r="B15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="145.8" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -1317,7 +1317,7 @@
   <si>
     <t>{
         "Nickname":"TestUser123",
-         "Summary:"Great Product",
+         "Summary":"Great Product",
          "Review":"Excellent quality product, highly recommend"
 }</t>
   </si>
@@ -4053,8 +4053,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H16"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4411,7 +4411,7 @@
       <c r="A16" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>336</v>
       </c>
       <c r="C16" s="6" t="s">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -1317,7 +1317,7 @@
   <si>
     <t>{
         "Nickname":"TestUser123",
-         "Summary:"Great Product",
+         "Summary":"Great Product",
          "Review":"Excellent quality product, highly recommend"
 }</t>
   </si>
@@ -1341,7 +1341,11 @@
 5. Click Submit button</t>
   </si>
   <si>
-    <t>All fields left blank</t>
+    <t>{
+        "Nickname":"",
+         "Summary":"",
+         "Review":""
+}</t>
   </si>
   <si>
     <t>Error messages should display for:
@@ -4053,8 +4057,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H16"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4411,7 +4415,7 @@
       <c r="A16" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>336</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -4423,7 +4427,7 @@
       <c r="E16" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>339</v>
       </c>
       <c r="G16" s="6" t="s">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -1341,7 +1341,11 @@
 5. Click Submit button</t>
   </si>
   <si>
-    <t>All fields left blank</t>
+    <t>{
+        "Nickname":"",
+         "Summary":"",
+         "Review":""
+}</t>
   </si>
   <si>
     <t>Error messages should display for:
@@ -4053,8 +4057,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4423,7 +4427,7 @@
       <c r="E16" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>339</v>
       </c>
       <c r="G16" s="6" t="s">

--- a/Test Data/ECT-TestCases.xlsx
+++ b/Test Data/ECT-TestCases.xlsx
@@ -4057,8 +4057,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
